--- a/task/bobTestExcel1.xlsx
+++ b/task/bobTestExcel1.xlsx
@@ -67,6 +67,108 @@
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>My Chart</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>First series</v>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'1st sheet'!$A$1:$A$10</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -358,15 +460,67 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
